--- a/data/expectations.xlsx
+++ b/data/expectations.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban09/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaizhong/LocalDocuments/A7Kanban/A7Kanban14/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBD3DE1A-1B42-2946-B5D6-B44B8E8429A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050569D1-F923-ED4E-9EBF-395094A8CC39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8600" yWindow="-24600" windowWidth="32860" windowHeight="22440" xr2:uid="{4F6100CF-6D10-BE40-8545-FDF8DD8135D8}"/>
+    <workbookView xWindow="17200" yWindow="-17460" windowWidth="32860" windowHeight="22440" xr2:uid="{4F6100CF-6D10-BE40-8545-FDF8DD8135D8}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -280,15 +280,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加速廣18 及 廣19的建設進度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;p&gt;加速廣18 &amp; 19的建設進度, 並加速開放郵政公園的使用。 &lt;/p&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加區域的公共托兒所, 幼稚園設置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -495,6 +487,14 @@
 &lt;p&gt;交通違規的整治 -
 交通違規檢舉法規修訂案縮減了違規檢舉範圍，但對於影響行車安全的違規仍是可以使用手機舉報。在許多違規嚴重區域，警方會提供QRcode
 供民眾舉報。 通常都有很好的效果。請參考 社區網站 - &lt;a href="https://tcwang.github.io/A7Xinlinkou/A7XLK-13-Transportation.html#Menu-B9"&gt;行人規劃&lt;/a&gt;&lt;/p&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加速廣18及廣19的建設進度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加區域的公共托兒所幼稚園設置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -886,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCFC3BA-47C5-3D47-8CB0-A909797830A1}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -916,18 +916,18 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="409.6">
       <c r="A2" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1">
         <v>334</v>
@@ -938,33 +938,33 @@
     </row>
     <row r="3" spans="1:6" ht="240">
       <c r="A3" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1">
         <v>145</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="380">
       <c r="A4" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1">
         <v>133</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="5" spans="1:6" ht="16">
       <c r="A5" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -992,13 +992,13 @@
     </row>
     <row r="6" spans="1:6" ht="320">
       <c r="A6" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1">
         <v>225</v>
@@ -1009,13 +1009,13 @@
     </row>
     <row r="7" spans="1:6" ht="144">
       <c r="A7" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="1">
         <v>157</v>
@@ -1026,13 +1026,13 @@
     </row>
     <row r="8" spans="1:6" ht="96">
       <c r="A8" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1">
         <v>87</v>
@@ -1043,24 +1043,24 @@
     </row>
     <row r="9" spans="1:6" ht="409.6">
       <c r="A9" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1">
         <v>72</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="350">
       <c r="A10" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="11" spans="1:6" ht="395">
       <c r="A11" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -1083,12 +1083,12 @@
         <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
         <v>7</v>
@@ -1102,13 +1102,13 @@
     </row>
     <row r="13" spans="1:6" ht="64">
       <c r="A13" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>23</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="14" spans="1:6" ht="160">
       <c r="A14" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1133,7 +1133,7 @@
     </row>
     <row r="15" spans="1:6" ht="144">
       <c r="A15" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="16" spans="1:6" ht="16">
       <c r="A16" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="17" spans="1:5" ht="409.6">
       <c r="A17" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="18" spans="1:5" ht="256">
       <c r="A18" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -1192,30 +1192,30 @@
     </row>
     <row r="19" spans="1:5" ht="16">
       <c r="A19" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="160">
       <c r="A20" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
